--- a/data/trans_bre/PCS12_SP_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>55,31%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 21,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 18,03</t>
+          <t>5,28; 18,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,02; 123,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 92,2</t>
+          <t>20,52; 104,38</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>37,72%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 13,34</t>
+          <t>3,18; 13,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 68,83</t>
+          <t>11,6; 76,1</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,22</t>
+          <t>-0,75; 11,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 48,97</t>
+          <t>-2,54; 52,99</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,78</t>
+          <t>15,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 19,46</t>
+          <t>9,23; 21,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 13,64</t>
+          <t>-10,57; 10,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,2; 102,55</t>
+          <t>33,1; 113,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 61,47</t>
+          <t>-36,95; 47,21</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,49%</t>
+          <t>60,33%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 14,53</t>
+          <t>3,34; 14,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 116,81</t>
+          <t>17,04; 116,38</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>31,74%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 15,98</t>
+          <t>2,76; 16,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 62,18</t>
+          <t>8,33; 64,55</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>12,75%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 11,03</t>
+          <t>-10,43; 11,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 56,8</t>
+          <t>-43,41; 57,25</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>-11,95</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>-30,78%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 11,66</t>
+          <t>-43,53; 11,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 71,94</t>
+          <t>-63,98; 70,21</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,3</t>
+          <t>-18,72; 7,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,18; 43,23</t>
+          <t>-43,47; 37,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 13,94</t>
+          <t>0,93; 14,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 21,41</t>
+          <t>5,66; 20,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 22,03</t>
+          <t>6,52; 21,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 18,94</t>
+          <t>5,43; 19,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 99,54</t>
+          <t>4,59; 113,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 123,74</t>
+          <t>22,43; 113,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,72; 129,83</t>
+          <t>24,76; 129,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,52; 104,38</t>
+          <t>21,87; 107,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,06; 20,01</t>
+          <t>9,52; 20,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 18,65</t>
+          <t>7,87; 18,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 13,79</t>
+          <t>3,7; 13,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 13,97</t>
+          <t>2,86; 13,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,48; 148,86</t>
+          <t>51,04; 153,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,26; 148,55</t>
+          <t>42,84; 145,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,97; 124,76</t>
+          <t>22,83; 119,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 76,1</t>
+          <t>11,32; 72,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 21,28</t>
+          <t>8,76; 21,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 16,11</t>
+          <t>3,72; 16,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 11,47</t>
+          <t>0,23; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 11,62</t>
+          <t>-0,88; 10,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,91; 220,53</t>
+          <t>55,14; 194,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 124,38</t>
+          <t>18,07; 126,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 99,03</t>
+          <t>1,36; 98,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 52,99</t>
+          <t>-2,9; 49,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 19,59</t>
+          <t>7,84; 19,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,76</t>
+          <t>9,2; 22,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 20,19</t>
+          <t>7,15; 20,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 10,76</t>
+          <t>-10,11; 11,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,63; 175,33</t>
+          <t>44,67; 166,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,1; 113,16</t>
+          <t>37,02; 124,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 103,27</t>
+          <t>26,87; 104,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 47,21</t>
+          <t>-34,56; 49,02</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 15,35</t>
+          <t>0,67; 15,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 24,94</t>
+          <t>6,39; 24,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 15,51</t>
+          <t>1,7; 16,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 14,61</t>
+          <t>3,6; 15,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 151,51</t>
+          <t>0,87; 141,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,56; 135,74</t>
+          <t>22,98; 136,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 139,07</t>
+          <t>9,99; 151,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,04; 116,38</t>
+          <t>18,5; 126,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 21,11</t>
+          <t>6,5; 21,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 14,83</t>
+          <t>-0,7; 14,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 14,64</t>
+          <t>-0,93; 14,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 16,42</t>
+          <t>2,41; 16,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,58; 152,86</t>
+          <t>32,44; 160,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 82,54</t>
+          <t>-2,85; 80,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 71,71</t>
+          <t>-3,35; 71,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 64,55</t>
+          <t>6,74; 62,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 14,3</t>
+          <t>5,29; 14,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 16,69</t>
+          <t>7,72; 16,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 12,56</t>
+          <t>2,78; 12,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 11,23</t>
+          <t>-10,37; 11,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,33; 107,79</t>
+          <t>28,19; 105,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,57; 131,44</t>
+          <t>46,15; 126,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 76,57</t>
+          <t>12,91; 77,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 57,25</t>
+          <t>-46,91; 58,54</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,5</t>
+          <t>4,54; 13,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,28; 11,7</t>
+          <t>3,37; 11,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,1</t>
+          <t>6,62; 14,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 11,35</t>
+          <t>-50,15; 11,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,6; 85,13</t>
+          <t>23,07; 81,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 79,88</t>
+          <t>17,25; 77,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,17; 134,93</t>
+          <t>48,56; 137,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,98; 70,21</t>
+          <t>-66,3; 69,0</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,48; 13,68</t>
+          <t>9,49; 13,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,25</t>
+          <t>9,16; 13,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,48</t>
+          <t>7,46; 11,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 7,92</t>
+          <t>-14,7; 7,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,68; 90,99</t>
+          <t>57,57; 91,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,37; 78,74</t>
+          <t>49,15; 79,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,43; 72,66</t>
+          <t>41,2; 72,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 37,19</t>
+          <t>-34,03; 35,88</t>
         </is>
       </c>
     </row>
